--- a/training_performance_table.xlsx
+++ b/training_performance_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/678b5566332b316c/Documents/GitHub/Heart-Disease/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_974EE3988FF76FFC05FC9890E22D62B130BB8865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{471DADC1-35A7-461D-92E3-6F2EA366C8D5}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_974EE3988FF76FFC05FC9890E22D62B130BB8865" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2A5384B-DDD9-4B62-A1C4-A7D642B4B180}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="3180" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30960" yWindow="1275" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
-  <si>
-    <t>LR_Baseline</t>
-  </si>
-  <si>
-    <t>CART_V2</t>
-  </si>
-  <si>
-    <t>XGB_V1</t>
-  </si>
-  <si>
-    <t>NN_V1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Accuracy</t>
   </si>
@@ -75,18 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,36 +122,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -512,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,485 +500,337 @@
     <col min="3" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="4"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.85511363636363635</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.87073863636363635</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.93892045454545459</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.86931818181818177</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.84916201117318435</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.81907090464547683</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.93036211699164351</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.95170454545454541</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.94886363636363635</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.88068181818181823</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.85633802816901394</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.88042049934296984</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.93952180028129395</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.8707865168539326</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="C7" s="5">
+        <v>0.86070215175537956</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.92184920198128795</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.94510469722693835</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.8766968325791854</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="C8" s="5">
+        <v>0.85201793721973107</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.84255533199195187</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.93400447427293076</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.8649553571428571</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="C9" s="7">
+        <v>0.85511363636363646</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.87073863636363635</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.93892045454545447</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.86931818181818188</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.85085227272727271</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.92755681818181823</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.88920454545454541</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
-        <v>0.85085227272727271</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.84022038567493118</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.86647727272727271</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.85314685314685312</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.86109542631281755</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.84534368070953436</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.85085227272727271</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.84022038567493118</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.82512315270935965</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.9123287671232877</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.86436170212765961</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3" t="s">
+      <c r="C14" s="5">
+        <v>0.85869565217391308</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.8188405797101449</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.85507246376811596</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.82512315270935965</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.95170454545454541</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.88390501319261217</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.92337375964718837</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.84767206477732793</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.86647727272727271</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.95170454545454541</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.94602272727272729</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.92329545454545459</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3" t="s">
+      <c r="C15" s="5">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.80346820809248554</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.87919463087248317</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.86624203821656054</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
-        <v>0.92755681818181823</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.9123287671232877</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.94602272727272729</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.92887029288702927</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.93908629441624369</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.91887417218543033</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.92755681818181812</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.85314685314685312</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.88390501319261217</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.92887029288702927</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.88920454545454541</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.86436170212765961</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.92329545454545459</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.9108744394618834</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.87553879310344818</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.88920454545454541</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.86109542631281755</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.92337375964718837</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.93908629441624369</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.9108744394618834</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.84534368070953436</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.84767206477732793</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.91887417218543033</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.87553879310344818</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.85085227272727271</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.92755681818181812</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.88920454545454541</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.85144927536231885</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.81521739130434778</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.84057971014492749</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.85507246376811596</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.87012987012987009</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.86754966887417218</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.86163522012578619</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>0.86451612903225805</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
+        <v>0.89677419354838706</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.84516129032258069</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.8774193548387097</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.84516129032258069</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.88387096774193552</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.86731391585760509</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.8421052631578948</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.85620915032679734</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.87261146496815301</v>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.87296416938110755</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.84756097560975607</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.86184210526315785</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.87179487179487181</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.86563307493540054</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.86294416243654815</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.84954604409857337</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.87933247753530164</v>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.86787564766839387</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.87641866330390927</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.85175552665799736</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.87516087516087504</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.86900129701686124</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.82224909310761796</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.86297760210803687</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.865992414664981</v>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.8781127129750983</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.82054309327036612</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.87217043941411443</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.8684546615581098</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.84961343641695541</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.80647827246067716</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.83993601706211685</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.85102639296187677</v>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.85787789922687296</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.80789122900559851</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.84820047987203417</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.85193281791522268</v>
       </c>
       <c r="G20" s="1"/>
     </row>
